--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1AEDCD-7E20-4ADF-A15D-F2479BD8F4CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB2D9DA-E606-4910-A559-1705827666C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5255" uniqueCount="5183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5256" uniqueCount="5184">
   <si>
     <t>Find all ".Trans = "SELECT"", Find Results 1, Entire Solution, ""</t>
   </si>
@@ -15572,6 +15572,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Matching lines: 105    Matching files: 44    Total files searched: 10090</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ds</t>
   </si>
 </sst>
 </file>
@@ -15892,7 +15895,7 @@
   <dimension ref="B3:H4224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16370,82 +16373,85 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>109</v>
       </c>
